--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/15/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.732300000000002</v>
+        <v>5.830900000000002</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -628,7 +628,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.323000000000003</v>
+        <v>6.375300000000006</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.400499999999996</v>
+        <v>9.509199999999995</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.05070000000001</v>
+        <v>-11.6915</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.845999999999998</v>
+        <v>8.969199999999997</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.86279999999999</v>
+        <v>-13.7465</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.518700000000001</v>
+        <v>5.622000000000002</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.016700000000003</v>
+        <v>4.968300000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-14.04809999999999</v>
+        <v>-14.0269</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.119300000000003</v>
+        <v>5.368500000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.8972</v>
+        <v>-11.9482</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.71759999999999</v>
+        <v>-13.83859999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.04</v>
+        <v>-12.2521</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.79919999999999</v>
+        <v>-13.76299999999999</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.8647</v>
+        <v>-10.73409999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1174,10 +1174,10 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.799999999999996</v>
+        <v>5.691400000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.76300000000001</v>
+        <v>-10.86220000000001</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.27919999999999</v>
+        <v>-13.65859999999999</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.548099999999994</v>
+        <v>4.572099999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.757099999999997</v>
+        <v>5.007</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.512799999999994</v>
+        <v>5.661999999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.309</v>
+        <v>-12.5156</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.505800000000002</v>
+        <v>9.399900000000004</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.666</v>
+        <v>5.512799999999996</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.8177</v>
+        <v>-13.5531</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.8256</v>
+        <v>-12.8106</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.63089999999999</v>
+        <v>-13.2964</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.790400000000004</v>
+        <v>5.907500000000002</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.695000000000001</v>
+        <v>5.495299999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.5516</v>
+        <v>-13.4387</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1874,7 +1874,7 @@
         <v>-21.66</v>
       </c>
       <c r="B103" t="n">
-        <v>5.744500000000007</v>
+        <v>5.613100000000006</v>
       </c>
       <c r="C103" t="n">
         <v>-14.32</v>
